--- a/test_case/テストケース.xlsx
+++ b/test_case/テストケース.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masateru\git\SandMountainModel\test_case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895D089-B2C3-4F6D-B145-E42CEFAE1BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5355" yWindow="1455" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="canIncrease_DT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>ルール1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標が範囲外だとfalseを返す</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハンイガイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数xが範囲内</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数yが範囲内</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効：0以上列数未満</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効：0以上行数未満</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueまたはfalse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +187,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +637,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_case/テストケース.xlsx
+++ b/test_case/テストケース.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masateru\git\SandMountainModel\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895D089-B2C3-4F6D-B145-E42CEFAE1BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC276B2-6987-4062-903A-AEF94830195D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1455" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canIncrease_DT" sheetId="1" r:id="rId1"/>
+    <sheet name="canIncrease_TC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ルール1</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +84,6 @@
     <rPh sb="4" eb="7">
       <t>ハンイナイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルール4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -148,6 +145,84 @@
   </si>
   <si>
     <t>trueまたはfalse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待される結果</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tc1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tc2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tc3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数xが範囲外</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数xが範囲内
+引数yが範囲外</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハンイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数xが範囲内
+引数yが範囲内</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -326,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +431,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -659,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -681,16 +768,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -699,13 +786,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -726,19 +813,83 @@
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819DCB7-74F9-4E06-A080-28023A183E32}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/テストケース.xlsx
+++ b/test_case/テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masateru\git\SandMountainModel\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC276B2-6987-4062-903A-AEF94830195D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E812E096-D870-4A38-AC77-731E8C8E7801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30930" yWindow="2010" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canIncrease_DT" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>ルール1</t>
     <phoneticPr fontId="1"/>
@@ -178,51 +178,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数xが範囲外</t>
+    <t>引数xが範囲内
+引数yが範囲外</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハンイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数xが範囲内
+引数yが範囲内</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数xが範囲外
+引数yが範囲内</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
     <rPh sb="4" eb="7">
       <t>ハンイガイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数xが範囲内
-引数yが範囲外</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
     <rPh sb="8" eb="10">
       <t>ヒキスウ</t>
     </rPh>
     <rPh sb="12" eb="15">
-      <t>ハンイガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数xが範囲内
-引数yが範囲内</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
       <t>ハンイナイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ハンイナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -254,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -397,11 +404,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +489,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,18 +783,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -756,7 +812,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -767,7 +823,7 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -784,7 +840,9 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
@@ -797,7 +855,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -806,7 +864,7 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -815,7 +873,7 @@
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -840,7 +898,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -859,12 +917,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
+      <c r="B2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>11</v>
@@ -875,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
@@ -886,10 +944,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/テストケース.xlsx
+++ b/test_case/テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masateru\git\SandMountainModel\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E812E096-D870-4A38-AC77-731E8C8E7801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD26A0-794E-4983-91E2-4A71F15B68F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="2010" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36045" yWindow="2055" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canIncrease_DT" sheetId="1" r:id="rId1"/>
@@ -67,26 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数xが範囲内</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ハンイナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数yが範囲内</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ハンイナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,56 +158,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数xが範囲内
-引数yが範囲外</t>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数columnが範囲外
+引数rowが範囲内</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="9" eb="12">
+      <t>ハンイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数columnが範囲内
+引数rowが範囲外</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="13" eb="15">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="19" eb="22">
       <t>ハンイガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数xが範囲内
-引数yが範囲内</t>
+    <t>引数columnが範囲内
+引数rowが範囲内</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="4" eb="7">
+    <rPh sb="9" eb="12">
       <t>ハンイナイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="13" eb="15">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="19" eb="22">
       <t>ハンイナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数xが範囲外
-引数yが範囲内</t>
+    <t>引数rowが範囲内</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="4" eb="7">
-      <t>ハンイガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数columnが範囲内</t>
+    <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="9" eb="12">
       <t>ハンイナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -821,36 +821,36 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -871,19 +871,19 @@
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819DCB7-74F9-4E06-A080-28023A183E32}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -910,44 +910,44 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.5">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/テストケース.xlsx
+++ b/test_case/テストケース.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masateru\git\SandMountainModel\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD26A0-794E-4983-91E2-4A71F15B68F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986A8D8-ECD8-4586-85E0-C1A25AE3C9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36045" yWindow="2055" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canIncrease_DT" sheetId="1" r:id="rId1"/>
     <sheet name="canIncrease_TC" sheetId="2" r:id="rId2"/>
+    <sheet name="increase_DT" sheetId="3" r:id="rId3"/>
+    <sheet name="increase_TC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>ルール1</t>
     <phoneticPr fontId="1"/>
@@ -229,6 +231,149 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>ハンイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール2</t>
+  </si>
+  <si>
+    <t>引数x，yが有効</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した座標の変化</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した座標の
+周囲の座標の変化</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値を増やせる</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した座標をインクリメントする．
+4を超えると周囲の座標に値をインクリメントする．インクリメントした座標が4になったらその座標の周囲をインクリメントする．
+これを繰り返す．</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール3</t>
+  </si>
+  <si>
+    <t>座標の値が4以上</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この座標が4になったら，
+その周囲の座標をインクリメントする
+これは加算できなくなるまで繰り返す</t>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -443,11 +588,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +720,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -897,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819DCB7-74F9-4E06-A080-28023A183E32}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -955,4 +1215,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2804B3CB-DBFF-4A18-83FA-3BCC83F729BF}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="44.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="93.75">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="57" thickBot="1">
+      <c r="A9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD00D29-A47C-48F8-A217-10780A220B4F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>